--- a/ZoningAtlas/raw_data/Excel_workbooks/Orange_Randolph_features.xlsx
+++ b/ZoningAtlas/raw_data/Excel_workbooks/Orange_Randolph_features.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lornaepeters/Documents/Vermont Zoning Atlas/Randolph/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybird/ZoningAtlas/VT_Zoning_Atlas/ZoningAtlas/raw_data/Excel_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033EA1AB-6EAF-994D-AABA-2C1757695077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801965D1-1A2B-6C48-A0E8-D4905D106540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15940" activeTab="1" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
   </bookViews>
   <sheets>
     <sheet name="Districts" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="181">
   <si>
     <t>County</t>
   </si>
@@ -407,9 +407,6 @@
   </si>
   <si>
     <t>50'; may be as high as adjacent buildings</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>RVHD</t>
@@ -3207,8 +3204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4BA41B-4280-B747-9B6E-C79D73F6A3E5}">
   <dimension ref="A1:AM144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B115" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AM137" sqref="AM137"/>
@@ -3268,109 +3265,109 @@
         <v>89</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AI1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AK1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM1" s="2" t="s">
         <v>89</v>
@@ -3547,75 +3544,75 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Y4" s="1"/>
       <c r="Z4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AA4" s="1"/>
       <c r="AB4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG4" s="1"/>
       <c r="AH4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AI4" s="1"/>
       <c r="AJ4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AK4" s="1"/>
       <c r="AL4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM4" s="1"/>
     </row>
@@ -4762,7 +4759,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E19" s="1"/>
       <c r="G19" s="1"/>
@@ -4776,22 +4773,22 @@
       <c r="W19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AI19" s="1"/>
       <c r="AJ19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AK19" s="1"/>
       <c r="AL19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AM19" s="1"/>
     </row>
@@ -4846,19 +4843,19 @@
         <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21" t="s">
         <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G21" t="s">
         <v>82</v>
       </c>
       <c r="H21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I21" t="s">
         <v>82</v>
@@ -4870,37 +4867,37 @@
         <v>93</v>
       </c>
       <c r="L21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M21" t="s">
         <v>82</v>
       </c>
       <c r="N21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O21" t="s">
         <v>82</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q21" t="s">
         <v>82</v>
       </c>
       <c r="R21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S21" t="s">
         <v>83</v>
       </c>
       <c r="T21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U21" t="s">
         <v>82</v>
       </c>
       <c r="V21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W21" t="s">
         <v>82</v>
@@ -4947,7 +4944,7 @@
         <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22" t="s">
         <v>83</v>
@@ -4959,7 +4956,7 @@
         <v>84</v>
       </c>
       <c r="H22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I22" t="s">
         <v>83</v>
@@ -5010,19 +5007,19 @@
         <v>84</v>
       </c>
       <c r="Z22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA22" t="s">
         <v>83</v>
       </c>
       <c r="AB22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AC22" t="s">
         <v>84</v>
       </c>
       <c r="AD22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE22" t="s">
         <v>84</v>
@@ -5037,7 +5034,7 @@
         <v>84</v>
       </c>
       <c r="AL22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM22" t="s">
         <v>83</v>
@@ -5051,7 +5048,7 @@
         <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E23" t="s">
         <v>83</v>
@@ -5141,7 +5138,7 @@
         <v>84</v>
       </c>
       <c r="AL23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM23" t="s">
         <v>83</v>
@@ -5245,7 +5242,7 @@
         <v>84</v>
       </c>
       <c r="AL24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM24" t="s">
         <v>83</v>
@@ -5322,19 +5319,19 @@
         <v>84</v>
       </c>
       <c r="Z25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AA25" t="s">
         <v>82</v>
       </c>
       <c r="AB25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AC25" t="s">
         <v>84</v>
       </c>
       <c r="AD25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE25" t="s">
         <v>84</v>
@@ -5737,7 +5734,7 @@
         <v>84</v>
       </c>
       <c r="AL30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM30" t="s">
         <v>83</v>
@@ -6044,19 +6041,19 @@
         <v>93</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
         <v>82</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G36" t="s">
         <v>82</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I36" t="s">
         <v>82</v>
@@ -6068,37 +6065,37 @@
         <v>93</v>
       </c>
       <c r="L36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M36" t="s">
         <v>82</v>
       </c>
       <c r="N36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O36" t="s">
         <v>82</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q36" t="s">
         <v>82</v>
       </c>
       <c r="R36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S36" t="s">
         <v>83</v>
       </c>
       <c r="T36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U36" t="s">
         <v>82</v>
       </c>
       <c r="V36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W36" t="s">
         <v>82</v>
@@ -6207,7 +6204,7 @@
         <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E38" t="s">
         <v>83</v>
@@ -6219,7 +6216,7 @@
         <v>84</v>
       </c>
       <c r="H38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I38" t="s">
         <v>83</v>
@@ -6270,19 +6267,19 @@
         <v>84</v>
       </c>
       <c r="Z38" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA38" t="s">
         <v>83</v>
       </c>
       <c r="AB38" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AC38" t="s">
         <v>84</v>
       </c>
       <c r="AD38" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE38" t="s">
         <v>84</v>
@@ -6297,7 +6294,7 @@
         <v>84</v>
       </c>
       <c r="AL38" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM38" t="s">
         <v>83</v>
@@ -6311,7 +6308,7 @@
         <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E39" t="s">
         <v>83</v>
@@ -6401,7 +6398,7 @@
         <v>84</v>
       </c>
       <c r="AL39" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM39" t="s">
         <v>83</v>
@@ -6505,7 +6502,7 @@
         <v>84</v>
       </c>
       <c r="AL40" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM40" t="s">
         <v>83</v>
@@ -6582,19 +6579,19 @@
         <v>84</v>
       </c>
       <c r="Z41" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AA41" t="s">
         <v>82</v>
       </c>
       <c r="AB41" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AC41" t="s">
         <v>84</v>
       </c>
       <c r="AD41" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE41" t="s">
         <v>84</v>
@@ -7098,7 +7095,7 @@
         <v>84</v>
       </c>
       <c r="AL47" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM47" t="s">
         <v>83</v>
@@ -7396,13 +7393,13 @@
         <v>93</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E53" t="s">
         <v>82</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G53" t="s">
         <v>82</v>
@@ -7417,19 +7414,19 @@
         <v>93</v>
       </c>
       <c r="L53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M53" t="s">
         <v>82</v>
       </c>
       <c r="N53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O53" t="s">
         <v>82</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q53" t="s">
         <v>82</v>
@@ -7438,13 +7435,13 @@
         <v>93</v>
       </c>
       <c r="T53" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U53" t="s">
         <v>82</v>
       </c>
       <c r="V53" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W53" t="s">
         <v>82</v>
@@ -7553,7 +7550,7 @@
         <v>83</v>
       </c>
       <c r="D55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E55" t="s">
         <v>83</v>
@@ -7614,13 +7611,13 @@
         <v>84</v>
       </c>
       <c r="AB55" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AC55" t="s">
         <v>83</v>
       </c>
       <c r="AD55" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE55" t="s">
         <v>83</v>
@@ -7635,7 +7632,7 @@
         <v>84</v>
       </c>
       <c r="AL55" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM55" t="s">
         <v>83</v>
@@ -7649,7 +7646,7 @@
         <v>84</v>
       </c>
       <c r="D56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E56" t="s">
         <v>83</v>
@@ -7730,7 +7727,7 @@
         <v>84</v>
       </c>
       <c r="AL56" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM56" t="s">
         <v>83</v>
@@ -7825,7 +7822,7 @@
         <v>84</v>
       </c>
       <c r="AL57" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM57" t="s">
         <v>83</v>
@@ -7903,13 +7900,13 @@
         <v>84</v>
       </c>
       <c r="AB58" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AC58" t="s">
         <v>82</v>
       </c>
       <c r="AD58" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE58" t="s">
         <v>82</v>
@@ -8482,7 +8479,7 @@
         <v>84</v>
       </c>
       <c r="AL66" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM66" t="s">
         <v>83</v>
@@ -8760,41 +8757,41 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="G71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="M71" s="1"/>
       <c r="N71" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="O71" s="1"/>
       <c r="P71" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="Q71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="U71" s="1"/>
       <c r="V71" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="W71" s="1"/>
       <c r="Y71" s="1"/>
@@ -8817,41 +8814,41 @@
         <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="G72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="M72" s="1"/>
       <c r="N72" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="O72" s="1"/>
       <c r="P72" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="Q72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="U72" s="1"/>
       <c r="V72" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="W72" s="1"/>
       <c r="Y72" s="1"/>
@@ -8880,13 +8877,13 @@
         <v>93</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E73" t="s">
         <v>82</v>
       </c>
       <c r="F73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G73" t="s">
         <v>93</v>
@@ -8901,19 +8898,19 @@
         <v>93</v>
       </c>
       <c r="L73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M73" t="s">
         <v>82</v>
       </c>
       <c r="N73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O73" t="s">
         <v>82</v>
       </c>
       <c r="P73" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q73" t="s">
         <v>82</v>
@@ -8922,13 +8919,13 @@
         <v>93</v>
       </c>
       <c r="T73" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U73" t="s">
         <v>82</v>
       </c>
       <c r="V73" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W73" t="s">
         <v>82</v>
@@ -9037,7 +9034,7 @@
         <v>83</v>
       </c>
       <c r="D75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E75" t="s">
         <v>83</v>
@@ -9098,13 +9095,13 @@
         <v>84</v>
       </c>
       <c r="AB75" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AC75" t="s">
         <v>83</v>
       </c>
       <c r="AD75" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE75" t="s">
         <v>83</v>
@@ -9119,7 +9116,7 @@
         <v>84</v>
       </c>
       <c r="AL75" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM75" t="s">
         <v>83</v>
@@ -9133,7 +9130,7 @@
         <v>84</v>
       </c>
       <c r="D76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E76" t="s">
         <v>83</v>
@@ -9214,7 +9211,7 @@
         <v>84</v>
       </c>
       <c r="AL76" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM76" t="s">
         <v>83</v>
@@ -9309,7 +9306,7 @@
         <v>84</v>
       </c>
       <c r="AL77" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM77" t="s">
         <v>83</v>
@@ -9387,13 +9384,13 @@
         <v>84</v>
       </c>
       <c r="AB78" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AC78" t="s">
         <v>82</v>
       </c>
       <c r="AD78" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE78" t="s">
         <v>82</v>
@@ -9966,7 +9963,7 @@
         <v>84</v>
       </c>
       <c r="AL86" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM86" t="s">
         <v>83</v>
@@ -10334,47 +10331,47 @@
       </c>
       <c r="C92" s="1"/>
       <c r="D92" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="G92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="K92" s="1"/>
       <c r="L92" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="O92" s="1"/>
       <c r="P92" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="Q92" s="1"/>
       <c r="S92" s="1"/>
       <c r="T92" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="U92" s="1"/>
       <c r="V92" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="W92" s="1"/>
       <c r="Y92" s="1"/>
       <c r="AA92" s="1"/>
       <c r="AB92" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="AC92" s="1"/>
       <c r="AD92" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="AE92" s="1"/>
       <c r="AG92" s="1"/>
@@ -10391,47 +10388,47 @@
       </c>
       <c r="C93" s="1"/>
       <c r="D93" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="G93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="K93" s="1"/>
       <c r="L93" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="M93" s="1"/>
       <c r="N93" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="O93" s="1"/>
       <c r="P93" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="Q93" s="1"/>
       <c r="S93" s="1"/>
       <c r="T93" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="U93" s="1"/>
       <c r="V93" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="W93" s="1"/>
       <c r="Y93" s="1"/>
       <c r="AA93" s="1"/>
       <c r="AB93" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="AC93" s="1"/>
       <c r="AD93" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="AE93" s="1"/>
       <c r="AG93" s="1"/>
@@ -10450,13 +10447,13 @@
         <v>93</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E94" t="s">
         <v>82</v>
       </c>
       <c r="F94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G94" t="s">
         <v>93</v>
@@ -10471,19 +10468,19 @@
         <v>93</v>
       </c>
       <c r="L94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M94" t="s">
         <v>82</v>
       </c>
       <c r="N94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O94" t="s">
         <v>82</v>
       </c>
       <c r="P94" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q94" t="s">
         <v>82</v>
@@ -10492,13 +10489,13 @@
         <v>93</v>
       </c>
       <c r="T94" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U94" t="s">
         <v>82</v>
       </c>
       <c r="V94" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W94" t="s">
         <v>82</v>
@@ -10510,13 +10507,13 @@
         <v>93</v>
       </c>
       <c r="AB94" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AC94" t="s">
         <v>82</v>
       </c>
       <c r="AD94" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AE94" t="s">
         <v>82</v>
@@ -10607,7 +10604,7 @@
         <v>83</v>
       </c>
       <c r="D96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E96" t="s">
         <v>83</v>
@@ -10668,13 +10665,13 @@
         <v>84</v>
       </c>
       <c r="AB96" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AC96" t="s">
         <v>83</v>
       </c>
       <c r="AD96" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE96" t="s">
         <v>83</v>
@@ -10689,7 +10686,7 @@
         <v>84</v>
       </c>
       <c r="AL96" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM96" t="s">
         <v>83</v>
@@ -10703,7 +10700,7 @@
         <v>84</v>
       </c>
       <c r="D97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E97" t="s">
         <v>83</v>
@@ -10784,7 +10781,7 @@
         <v>84</v>
       </c>
       <c r="AL97" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM97" t="s">
         <v>83</v>
@@ -10879,7 +10876,7 @@
         <v>84</v>
       </c>
       <c r="AL98" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM98" t="s">
         <v>83</v>
@@ -10957,13 +10954,13 @@
         <v>84</v>
       </c>
       <c r="AB99" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AC99" t="s">
         <v>82</v>
       </c>
       <c r="AD99" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE99" t="s">
         <v>82</v>
@@ -11536,7 +11533,7 @@
         <v>84</v>
       </c>
       <c r="AL107" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM107" t="s">
         <v>83</v>
@@ -12445,56 +12442,56 @@
       </c>
       <c r="C123" s="1"/>
       <c r="D123" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="I123" s="1"/>
       <c r="J123" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="K123" s="1"/>
       <c r="L123" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="M123" s="1"/>
       <c r="N123" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="O123" s="1"/>
       <c r="P123" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="Q123" s="1"/>
       <c r="R123" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="S123" s="1"/>
       <c r="T123" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="U123" s="1"/>
       <c r="V123" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="W123" s="1"/>
       <c r="Y123" s="1"/>
       <c r="Z123" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="AA123" s="1"/>
       <c r="AB123" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="AC123" s="1"/>
       <c r="AD123" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="AE123" s="1"/>
       <c r="AG123" s="1"/>
@@ -12508,56 +12505,56 @@
       </c>
       <c r="C124" s="1"/>
       <c r="D124" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="I124" s="1"/>
       <c r="J124" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="K124" s="1"/>
       <c r="L124" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="M124" s="1"/>
       <c r="N124" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="O124" s="1"/>
       <c r="P124" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="Q124" s="1"/>
       <c r="R124" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="S124" s="1"/>
       <c r="T124" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="U124" s="1"/>
       <c r="V124" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="W124" s="1"/>
       <c r="Y124" s="1"/>
       <c r="Z124" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="AA124" s="1"/>
       <c r="AB124" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="AC124" s="1"/>
       <c r="AD124" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="AE124" s="1"/>
       <c r="AG124" s="1"/>
@@ -12571,56 +12568,56 @@
       </c>
       <c r="C125" s="1"/>
       <c r="D125" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="I125" s="1"/>
       <c r="J125" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="K125" s="1"/>
       <c r="L125" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="M125" s="1"/>
       <c r="N125" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="O125" s="1"/>
       <c r="P125" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="Q125" s="1"/>
       <c r="R125" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="S125" s="1"/>
       <c r="T125" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="U125" s="1"/>
       <c r="V125" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="W125" s="1"/>
       <c r="Y125" s="1"/>
       <c r="Z125" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="AA125" s="1"/>
       <c r="AB125" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="AC125" s="1"/>
       <c r="AD125" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="AE125" s="1"/>
       <c r="AG125" s="1"/>
@@ -12634,56 +12631,56 @@
       </c>
       <c r="C126" s="1"/>
       <c r="D126" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="I126" s="1"/>
       <c r="J126" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="K126" s="1"/>
       <c r="L126" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="M126" s="1"/>
       <c r="N126" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="O126" s="1"/>
       <c r="P126" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="Q126" s="1"/>
       <c r="R126" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="S126" s="1"/>
       <c r="T126" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="U126" s="1"/>
       <c r="V126" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="W126" s="1"/>
       <c r="Y126" s="1"/>
       <c r="Z126" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="AA126" s="1"/>
       <c r="AB126" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="AC126" s="1"/>
       <c r="AD126" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="AE126" s="1"/>
       <c r="AG126" s="1"/>
@@ -12741,7 +12738,7 @@
         <v>93</v>
       </c>
       <c r="R127" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S127" t="s">
         <v>83</v>
@@ -12899,56 +12896,56 @@
       </c>
       <c r="C129" s="1"/>
       <c r="D129" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="I129" s="1"/>
       <c r="J129" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="K129" s="1"/>
       <c r="L129" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="M129" s="1"/>
       <c r="N129" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="O129" s="1"/>
       <c r="P129" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="Q129" s="1"/>
       <c r="R129" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="S129" s="1"/>
       <c r="T129" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="U129" s="1"/>
       <c r="V129" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="W129" s="1"/>
       <c r="Y129" s="1"/>
       <c r="Z129" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="AA129" s="1"/>
       <c r="AB129" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="AC129" s="1"/>
       <c r="AD129" t="s">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="AE129" s="1"/>
       <c r="AG129" s="1"/>
@@ -15476,8 +15473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05389331-E65F-9747-B96F-F1FC2DF92AD8}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15543,7 +15540,7 @@
         <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -15551,7 +15548,7 @@
         <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -15567,7 +15564,7 @@
         <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
